--- a/output/optimized_schedule.xlsx
+++ b/output/optimized_schedule.xlsx
@@ -1057,16 +1057,16 @@
   <dimension ref="A1:E55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="12.8888888888889" customWidth="1"/>
-    <col min="2" max="2" width="18.8888888888889" customWidth="1"/>
-    <col min="3" max="3" width="14.8888888888889" customWidth="1"/>
-    <col min="4" max="4" width="16.4444444444444" customWidth="1"/>
-    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="1" max="1" width="13.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="3" max="3" width="14.5555555555556" customWidth="1"/>
+    <col min="4" max="4" width="14.4444444444444" customWidth="1"/>
+    <col min="5" max="5" width="12.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
